--- a/public/file/daily/2020/31-08-20.xlsx
+++ b/public/file/daily/2020/31-08-20.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HS\Desktop\Gifmis\Transparency_Reports\Daily_Payments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\projects\expenseng\public\file\daily\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1111,7 +1111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1161,16 +1161,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1460,12 +1460,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
